--- a/src/main/resources/sample_data_small.xlsx
+++ b/src/main/resources/sample_data_small.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mokshamanukantha/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mokshamanukantha/Documents/workspace/maxexplode/FastExcelReader/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AB435CC-2D35-474B-8500-724081D94293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6490075-20F4-6946-9305-9B99BF549207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="760" windowWidth="29100" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -49,15 +49,15 @@
   </si>
   <si>
     <t>132-482-5104</t>
-  </si>
-  <si>
-    <t>1987-12-21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="yyyy\/mm\/dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,11 +110,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +426,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -440,7 +447,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -457,8 +464,8 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2" s="3">
+        <v>45570</v>
       </c>
     </row>
   </sheetData>
